--- a/ds_branch.xlsx
+++ b/ds_branch.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenviet/Documents/Zalo Received Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIS\BIDV\migrate-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9CDE28-2944-0847-8EC9-8A981D6F66D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$241</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="394">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1201,13 +1203,19 @@
   </si>
   <si>
     <t>BRNUDTT (mã chi nhánh)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,6 +1230,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1245,9 +1259,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1528,21 +1545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="90.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="90.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1579,8 +1596,14 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1605,8 +1628,11 @@
       <c r="L2" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1631,8 +1657,11 @@
       <c r="L3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1657,8 +1686,11 @@
       <c r="L4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1683,8 +1715,11 @@
       <c r="L5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1709,8 +1744,11 @@
       <c r="L6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1735,8 +1773,11 @@
       <c r="L7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1761,8 +1802,11 @@
       <c r="L8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1787,8 +1831,11 @@
       <c r="L9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1813,8 +1860,11 @@
       <c r="L10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1839,8 +1889,11 @@
       <c r="L11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1865,8 +1918,11 @@
       <c r="L12" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1891,8 +1947,11 @@
       <c r="L13" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1917,8 +1976,11 @@
       <c r="L14" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1943,8 +2005,11 @@
       <c r="L15" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1969,8 +2034,11 @@
       <c r="L16" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1995,8 +2063,11 @@
       <c r="L17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2021,8 +2092,11 @@
       <c r="L18" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2047,8 +2121,11 @@
       <c r="L19" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2073,8 +2150,11 @@
       <c r="L20" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2099,8 +2179,11 @@
       <c r="L21" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2125,8 +2208,11 @@
       <c r="L22" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2151,8 +2237,11 @@
       <c r="L23" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2177,8 +2266,11 @@
       <c r="L24" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2203,8 +2295,11 @@
       <c r="L25" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2229,8 +2324,11 @@
       <c r="L26" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2255,8 +2353,11 @@
       <c r="L27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2281,8 +2382,11 @@
       <c r="L28" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2307,8 +2411,11 @@
       <c r="L29" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2333,8 +2440,11 @@
       <c r="L30" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2359,8 +2469,11 @@
       <c r="L31" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2385,8 +2498,11 @@
       <c r="L32" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2411,8 +2527,11 @@
       <c r="L33" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2437,8 +2556,11 @@
       <c r="L34" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2463,8 +2585,11 @@
       <c r="L35" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2489,8 +2614,11 @@
       <c r="L36" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2515,8 +2643,11 @@
       <c r="L37" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2541,8 +2672,11 @@
       <c r="L38" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2567,8 +2701,11 @@
       <c r="L39" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2593,8 +2730,11 @@
       <c r="L40" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2619,8 +2759,11 @@
       <c r="L41" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2645,8 +2788,11 @@
       <c r="L42" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2671,8 +2817,11 @@
       <c r="L43" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2697,8 +2846,11 @@
       <c r="L44" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2723,8 +2875,11 @@
       <c r="L45" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2749,8 +2904,11 @@
       <c r="L46" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2775,8 +2933,11 @@
       <c r="L47" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2801,8 +2962,11 @@
       <c r="L48" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2827,8 +2991,11 @@
       <c r="L49" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2853,8 +3020,11 @@
       <c r="L50" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2879,8 +3049,11 @@
       <c r="L51" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2905,8 +3078,11 @@
       <c r="L52" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2931,8 +3107,12 @@
       <c r="L53" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2957,8 +3137,11 @@
       <c r="L54" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2983,8 +3166,11 @@
       <c r="L55" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3009,8 +3195,11 @@
       <c r="L56" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3035,8 +3224,11 @@
       <c r="L57" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3061,8 +3253,11 @@
       <c r="L58" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3087,8 +3282,11 @@
       <c r="L59" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3113,8 +3311,11 @@
       <c r="L60" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3139,8 +3340,11 @@
       <c r="L61" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3165,8 +3369,11 @@
       <c r="L62" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3191,8 +3398,11 @@
       <c r="L63" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3217,8 +3427,11 @@
       <c r="L64" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3243,8 +3456,11 @@
       <c r="L65" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3269,8 +3485,11 @@
       <c r="L66" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3295,8 +3514,11 @@
       <c r="L67" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3321,8 +3543,11 @@
       <c r="L68" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3347,8 +3572,11 @@
       <c r="L69" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3373,8 +3601,11 @@
       <c r="L70" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3399,8 +3630,11 @@
       <c r="L71" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3425,8 +3659,11 @@
       <c r="L72" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3451,8 +3688,11 @@
       <c r="L73" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3477,8 +3717,11 @@
       <c r="L74" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3503,8 +3746,11 @@
       <c r="L75" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3529,8 +3775,11 @@
       <c r="L76" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3555,8 +3804,11 @@
       <c r="L77" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3581,8 +3833,11 @@
       <c r="L78" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3607,8 +3862,11 @@
       <c r="L79" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3633,8 +3891,11 @@
       <c r="L80" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3659,8 +3920,11 @@
       <c r="L81" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3685,8 +3949,11 @@
       <c r="L82" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3711,8 +3978,11 @@
       <c r="L83" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3737,8 +4007,11 @@
       <c r="L84" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3763,8 +4036,11 @@
       <c r="L85" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3789,8 +4065,11 @@
       <c r="L86" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3815,8 +4094,11 @@
       <c r="L87" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3841,8 +4123,11 @@
       <c r="L88" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3867,8 +4152,11 @@
       <c r="L89" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3893,8 +4181,11 @@
       <c r="L90" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3919,8 +4210,11 @@
       <c r="L91" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3945,8 +4239,11 @@
       <c r="L92" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3971,8 +4268,11 @@
       <c r="L93" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3997,8 +4297,11 @@
       <c r="L94" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4023,8 +4326,11 @@
       <c r="L95" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4049,8 +4355,11 @@
       <c r="L96" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4075,8 +4384,11 @@
       <c r="L97" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4101,8 +4413,11 @@
       <c r="L98" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4127,8 +4442,11 @@
       <c r="L99" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4153,8 +4471,11 @@
       <c r="L100" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4179,8 +4500,11 @@
       <c r="L101" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4205,8 +4529,11 @@
       <c r="L102" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4231,8 +4558,11 @@
       <c r="L103" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4257,8 +4587,11 @@
       <c r="L104" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4283,8 +4616,11 @@
       <c r="L105" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4309,8 +4645,11 @@
       <c r="L106" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4335,8 +4674,11 @@
       <c r="L107" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4361,8 +4703,11 @@
       <c r="L108" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4387,8 +4732,11 @@
       <c r="L109" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4413,8 +4761,11 @@
       <c r="L110" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4439,8 +4790,11 @@
       <c r="L111" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4465,8 +4819,11 @@
       <c r="L112" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4491,8 +4848,11 @@
       <c r="L113" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4517,8 +4877,11 @@
       <c r="L114" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4543,8 +4906,11 @@
       <c r="L115" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4569,8 +4935,11 @@
       <c r="L116" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4595,8 +4964,11 @@
       <c r="L117" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4621,8 +4993,11 @@
       <c r="L118" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4647,8 +5022,11 @@
       <c r="L119" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4673,8 +5051,11 @@
       <c r="L120" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4699,8 +5080,11 @@
       <c r="L121" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4725,8 +5109,11 @@
       <c r="L122" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4751,8 +5138,11 @@
       <c r="L123" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4777,8 +5167,11 @@
       <c r="L124" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4803,8 +5196,11 @@
       <c r="L125" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4829,8 +5225,11 @@
       <c r="L126" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4855,8 +5254,11 @@
       <c r="L127" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4881,8 +5283,11 @@
       <c r="L128" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4907,8 +5312,11 @@
       <c r="L129" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4933,8 +5341,11 @@
       <c r="L130" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4959,8 +5370,11 @@
       <c r="L131" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4985,8 +5399,11 @@
       <c r="L132" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5011,8 +5428,11 @@
       <c r="L133" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5037,8 +5457,11 @@
       <c r="L134" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5063,8 +5486,11 @@
       <c r="L135" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5089,8 +5515,11 @@
       <c r="L136" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5115,8 +5544,11 @@
       <c r="L137" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5141,8 +5573,11 @@
       <c r="L138" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5167,8 +5602,11 @@
       <c r="L139" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5193,8 +5631,11 @@
       <c r="L140" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5219,8 +5660,11 @@
       <c r="L141" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5245,8 +5689,11 @@
       <c r="L142" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5271,8 +5718,11 @@
       <c r="L143" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5297,8 +5747,11 @@
       <c r="L144" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5323,8 +5776,11 @@
       <c r="L145" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5349,8 +5805,11 @@
       <c r="L146" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5375,8 +5834,11 @@
       <c r="L147" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5401,8 +5863,11 @@
       <c r="L148" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5427,8 +5892,11 @@
       <c r="L149" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5453,8 +5921,11 @@
       <c r="L150" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5479,8 +5950,11 @@
       <c r="L151" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5505,8 +5979,11 @@
       <c r="L152" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5531,8 +6008,11 @@
       <c r="L153" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5557,8 +6037,11 @@
       <c r="L154" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5583,8 +6066,11 @@
       <c r="L155" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5609,8 +6095,11 @@
       <c r="L156" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5635,8 +6124,11 @@
       <c r="L157" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5661,8 +6153,11 @@
       <c r="L158" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5687,8 +6182,11 @@
       <c r="L159" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5713,8 +6211,11 @@
       <c r="L160" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5739,8 +6240,11 @@
       <c r="L161" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5765,8 +6269,11 @@
       <c r="L162" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5791,8 +6298,11 @@
       <c r="L163" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5817,8 +6327,11 @@
       <c r="L164" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5843,8 +6356,11 @@
       <c r="L165" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5869,8 +6385,11 @@
       <c r="L166" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5895,8 +6414,11 @@
       <c r="L167" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5921,8 +6443,11 @@
       <c r="L168" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5947,8 +6472,11 @@
       <c r="L169" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5973,8 +6501,11 @@
       <c r="L170" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5999,8 +6530,11 @@
       <c r="L171" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6025,8 +6559,11 @@
       <c r="L172" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6051,8 +6588,11 @@
       <c r="L173" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6077,8 +6617,11 @@
       <c r="L174" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6103,8 +6646,11 @@
       <c r="L175" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6129,8 +6675,11 @@
       <c r="L176" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6155,8 +6704,11 @@
       <c r="L177" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6181,8 +6733,11 @@
       <c r="L178" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6207,8 +6762,11 @@
       <c r="L179" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6233,8 +6791,11 @@
       <c r="L180" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6259,8 +6820,11 @@
       <c r="L181" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6285,8 +6849,11 @@
       <c r="L182" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6311,8 +6878,11 @@
       <c r="L183" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6337,8 +6907,11 @@
       <c r="L184" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6363,8 +6936,11 @@
       <c r="L185" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6389,8 +6965,11 @@
       <c r="L186" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6415,8 +6994,11 @@
       <c r="L187" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6441,8 +7023,11 @@
       <c r="L188" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6467,8 +7052,11 @@
       <c r="L189" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6493,8 +7081,11 @@
       <c r="L190" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6519,8 +7110,11 @@
       <c r="L191" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6545,8 +7139,11 @@
       <c r="L192" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6571,8 +7168,11 @@
       <c r="L193" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6597,8 +7197,11 @@
       <c r="L194" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6623,8 +7226,11 @@
       <c r="L195" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6649,8 +7255,11 @@
       <c r="L196" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6675,8 +7284,11 @@
       <c r="L197" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6701,8 +7313,11 @@
       <c r="L198" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6727,8 +7342,11 @@
       <c r="L199" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6753,8 +7371,11 @@
       <c r="L200" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6779,8 +7400,11 @@
       <c r="L201" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6805,8 +7429,11 @@
       <c r="L202" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6831,8 +7458,11 @@
       <c r="L203" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6857,8 +7487,11 @@
       <c r="L204" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6883,8 +7516,11 @@
       <c r="L205" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6909,8 +7545,11 @@
       <c r="L206" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6935,8 +7574,11 @@
       <c r="L207" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6961,8 +7603,11 @@
       <c r="L208" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6987,8 +7632,11 @@
       <c r="L209" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7013,8 +7661,11 @@
       <c r="L210" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7039,8 +7690,11 @@
       <c r="L211" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7065,8 +7719,11 @@
       <c r="L212" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7091,8 +7748,11 @@
       <c r="L213" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7117,8 +7777,11 @@
       <c r="L214" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7143,8 +7806,11 @@
       <c r="L215" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7169,8 +7835,11 @@
       <c r="L216" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7195,8 +7864,11 @@
       <c r="L217" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7221,8 +7893,11 @@
       <c r="L218" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7247,8 +7922,11 @@
       <c r="L219" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7273,8 +7951,11 @@
       <c r="L220" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7299,8 +7980,11 @@
       <c r="L221" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7325,8 +8009,11 @@
       <c r="L222" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7351,8 +8038,11 @@
       <c r="L223" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7377,8 +8067,11 @@
       <c r="L224" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7403,8 +8096,11 @@
       <c r="L225" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7429,8 +8125,11 @@
       <c r="L226" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7455,8 +8154,11 @@
       <c r="L227" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7481,8 +8183,11 @@
       <c r="L228" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7507,8 +8212,11 @@
       <c r="L229" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7533,8 +8241,11 @@
       <c r="L230" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7559,8 +8270,11 @@
       <c r="L231" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7585,8 +8299,11 @@
       <c r="L232" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7611,8 +8328,11 @@
       <c r="L233" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7637,8 +8357,11 @@
       <c r="L234" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7663,8 +8386,11 @@
       <c r="L235" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7689,8 +8415,11 @@
       <c r="L236" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7715,8 +8444,11 @@
       <c r="L237" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7741,8 +8473,11 @@
       <c r="L238" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7767,8 +8502,11 @@
       <c r="L239" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7790,8 +8528,11 @@
       <c r="J240">
         <v>990</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7813,11 +8554,16 @@
       <c r="J241">
         <v>999</v>
       </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N241"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="ftp://10.53.41.66/FTPData/ChiNhanh/MienNam/SongBe/NHAN/CoreBanking/LSLG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId1" display="ftp://10.53.41.66/FTPData/ChiNhanh/MienNam/SongBe/NHAN/CoreBanking/LSLG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>